--- a/assets/map/calcul duree partie.xlsx
+++ b/assets/map/calcul duree partie.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F9" sqref="F9:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/map/calcul duree partie.xlsx
+++ b/assets/map/calcul duree partie.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,14 +450,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1">
         <v>16</v>
       </c>
       <c r="D1" s="1">
         <f>B1+2</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -472,14 +472,14 @@
       </c>
       <c r="B2" s="1">
         <f>ROUNDDOWN((B1*C2)/C1,0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
       </c>
       <c r="D2" s="1">
         <f>B2+2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" s="1">
         <f>B1*B2</f>
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
@@ -570,36 +570,36 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>ROUNDDOWN(B3/5,0)</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <f>((B1*B2) -A9 ) / (1+B4)</f>
-        <v>64.5</v>
+        <v>54.75</v>
       </c>
       <c r="C9" s="1">
         <f>(B9*B5)/60</f>
-        <v>10.75</v>
+        <v>4.5625</v>
       </c>
       <c r="D9" s="1">
         <f>C9/2</f>
-        <v>5.375</v>
+        <v>2.28125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <f>((B1*B2) -A10 ) / (1+B4)</f>
-        <v>63.5</v>
+        <v>60.75</v>
       </c>
       <c r="C10" s="1">
         <f>(B10*B5)/60</f>
-        <v>10.583333333333334</v>
+        <v>5.0625</v>
       </c>
       <c r="D10" s="1">
         <f>C10/2</f>
-        <v>5.291666666666667</v>
+        <v>2.53125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,13 +610,13 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>B3/A9</f>
-        <v>5.03125</v>
+        <v>5.0555555555555554</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>B3/A10</f>
-        <v>4.7352941176470589</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
